--- a/alertPolicies.xlsx
+++ b/alertPolicies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_One\projectOne\resources\config\office365\CSV\Xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2982171F-9697-4240-B40E-7F4296B888A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC8739D-4D88-45C3-BE81-88A5D8AB2B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22584" yWindow="300" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H58" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H59" headerRowCount="0">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
@@ -838,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,6 +2183,20 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59">
+        <v>850</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/alertPolicies.xlsx
+++ b/alertPolicies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598C00F0-D685-4636-95AD-AF6B2A4024F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031F1FC1-8D88-48D6-8A6D-8F376B8579B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22584" yWindow="300" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -453,13 +453,16 @@
   </si>
   <si>
     <t xml:space="preserve">GS </t>
+  </si>
+  <si>
+    <t>GSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -507,7 +510,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H59" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H60" headerRowCount="0">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
@@ -838,15 +841,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -896,7 +899,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -920,7 +923,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -946,7 +949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -970,7 +973,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -994,7 +997,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1018,7 +1021,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1042,7 +1045,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1066,7 +1069,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1142,7 +1145,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1166,7 +1169,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1190,7 +1193,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1214,7 +1217,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1238,7 +1241,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1262,7 +1265,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1286,7 +1289,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1310,7 +1313,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1334,7 +1337,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1358,7 +1361,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1382,7 +1385,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1406,7 +1409,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1430,7 +1433,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1454,7 +1457,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1478,7 +1481,7 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1502,7 +1505,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1526,7 +1529,7 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1550,7 +1553,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1574,7 +1577,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1598,7 +1601,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1622,7 +1625,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1646,7 +1649,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1670,7 +1673,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1694,7 +1697,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1718,7 +1721,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1742,7 +1745,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1766,7 +1769,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1790,7 +1793,7 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1814,7 +1817,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1838,7 +1841,7 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1862,7 +1865,7 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1886,7 +1889,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1910,7 +1913,7 @@
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1934,7 +1937,7 @@
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1958,7 +1961,7 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1982,7 +1985,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2006,7 +2009,7 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2042,7 +2045,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2052,7 +2055,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2062,7 +2065,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2072,7 +2075,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>9</v>
       </c>
@@ -2096,7 +2099,7 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2120,7 +2123,7 @@
       </c>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>16</v>
       </c>
@@ -2144,7 +2147,7 @@
       </c>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>18</v>
       </c>
@@ -2166,7 +2169,7 @@
       </c>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>19</v>
       </c>
@@ -2184,7 +2187,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20</v>
       </c>
@@ -2195,6 +2198,20 @@
         <v>143</v>
       </c>
       <c r="D59">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60">
         <v>1250</v>
       </c>
     </row>
@@ -2212,9 +2229,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
@@ -2249,7 +2266,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2268,7 +2285,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2299,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2334,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2365,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2384,7 +2401,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2403,7 +2420,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2422,7 +2439,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2441,7 +2458,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2460,7 +2477,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2479,7 +2496,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2508,7 +2525,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2527,7 +2544,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2546,7 +2563,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2565,7 +2582,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2594,7 +2611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2623,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2642,7 +2659,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2661,7 +2678,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2680,7 +2697,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2699,7 +2716,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2718,7 +2735,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2745,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2774,7 +2791,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2793,7 +2810,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2812,7 +2829,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2831,7 +2848,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2850,7 +2867,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2869,7 +2886,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2888,7 +2905,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2907,7 +2924,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2936,7 +2953,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2955,7 +2972,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2974,7 +2991,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2993,7 +3010,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3012,7 +3029,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3031,7 +3048,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3058,7 +3075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3085,7 +3102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3112,7 +3129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3135,7 +3152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3158,7 +3175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3181,7 +3198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3200,7 +3217,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3225,7 +3242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3250,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3269,7 +3286,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3288,7 +3305,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3317,7 +3334,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3330,7 +3347,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3343,7 +3360,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3356,7 +3373,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3369,7 +3386,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>9</v>
       </c>
@@ -3388,7 +3405,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>10</v>
       </c>
@@ -3407,7 +3424,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>16</v>
       </c>
@@ -3426,7 +3443,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>18</v>
       </c>
@@ -3445,7 +3462,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
